--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1143359.432483341</v>
+        <v>-1146208.854672669</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>93.14431553719766</v>
+        <v>67.50443521993702</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>17.12854060429777</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.7501415598542</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>9.790440613649634</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>44.17579562641288</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>186.5510079757157</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>289.431740553411</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>65.25024693872075</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>43.31785343914003</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>65.55543748516951</v>
+        <v>142.047369829043</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1303,16 +1303,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>158.0061068297566</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>6.825407824686608</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>47.88058113793286</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>47.08900005058094</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187863</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1822,13 +1822,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>134.4940861694922</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>100.2041656279966</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,13 +2011,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.3849150459361</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>99.97427419833815</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>180.279436674684</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -3001,10 +3001,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545303</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3427,22 +3427,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.981188826526</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="39">
@@ -3664,22 +3664,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1219.276820198647</v>
+        <v>867.2878080881313</v>
       </c>
       <c r="C2" t="n">
-        <v>1219.276820198647</v>
+        <v>867.2878080881313</v>
       </c>
       <c r="D2" t="n">
-        <v>861.0111215918964</v>
+        <v>867.2878080881313</v>
       </c>
       <c r="E2" t="n">
-        <v>475.2228689936522</v>
+        <v>867.2878080881313</v>
       </c>
       <c r="F2" t="n">
-        <v>475.2228689936522</v>
+        <v>867.2878080881313</v>
       </c>
       <c r="G2" t="n">
-        <v>475.2228689936522</v>
+        <v>449.3239999863182</v>
       </c>
       <c r="H2" t="n">
-        <v>148.028149029655</v>
+        <v>122.129280022321</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2679.847534852265</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2679.847534852265</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>2348.784647508694</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1996.01599223858</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1996.01599223858</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>1605.876660262769</v>
+        <v>867.2878080881313</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4413,19 +4413,19 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>245.4549451025302</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="C4" t="n">
-        <v>245.4549451025302</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D4" t="n">
-        <v>245.4549451025302</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
         <v>200.8329293182748</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>245.4549451025302</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y4" t="n">
-        <v>245.4549451025302</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1568.353113282533</v>
+        <v>829.562656169633</v>
       </c>
       <c r="C5" t="n">
-        <v>1568.353113282533</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2332.53624174076</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1979.767586470646</v>
       </c>
       <c r="X5" t="n">
-        <v>1954.952953346655</v>
+        <v>1606.301828209567</v>
       </c>
       <c r="Y5" t="n">
-        <v>1954.952953346655</v>
+        <v>1216.162496233755</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>323.2572191628421</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>323.2572191628421</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>323.2572191628421</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>323.2572191628421</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>323.2572191628421</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>257.3478788207</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>323.2572191628421</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>323.2572191628421</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>323.2572191628421</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1218.332132399257</v>
+        <v>1369.514975690618</v>
       </c>
       <c r="C8" t="n">
-        <v>849.3696154588458</v>
+        <v>1000.552458750206</v>
       </c>
       <c r="D8" t="n">
-        <v>849.3696154588458</v>
+        <v>642.2867601434557</v>
       </c>
       <c r="E8" t="n">
-        <v>849.3696154588458</v>
+        <v>642.2867601434557</v>
       </c>
       <c r="F8" t="n">
-        <v>438.3837106692383</v>
+        <v>635.3412593942522</v>
       </c>
       <c r="G8" t="n">
-        <v>372.1660970478549</v>
+        <v>491.8590676477442</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2540.93405351505</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782762</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782762</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="V8" t="n">
-        <v>1995.071304439191</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="W8" t="n">
-        <v>1995.071304439191</v>
+        <v>2129.580574015819</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.071304439191</v>
+        <v>1756.11481575474</v>
       </c>
       <c r="Y8" t="n">
-        <v>1604.931972463379</v>
+        <v>1756.11481575474</v>
       </c>
     </row>
     <row r="9">
@@ -4887,16 +4887,16 @@
         <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>829.2828935107518</v>
+        <v>639.260235998764</v>
       </c>
       <c r="M9" t="n">
-        <v>1469.828242977856</v>
+        <v>818.7575723533688</v>
       </c>
       <c r="N9" t="n">
-        <v>2137.372643004866</v>
+        <v>1486.301972380379</v>
       </c>
       <c r="O9" t="n">
-        <v>2296.884955673627</v>
+        <v>1981.606814720089</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>240.4244145843437</v>
+        <v>536.7359359593715</v>
       </c>
       <c r="C10" t="n">
-        <v>240.4244145843437</v>
+        <v>367.7997530314647</v>
       </c>
       <c r="D10" t="n">
-        <v>240.4244145843437</v>
+        <v>367.7997530314647</v>
       </c>
       <c r="E10" t="n">
-        <v>240.4244145843437</v>
+        <v>367.7997530314647</v>
       </c>
       <c r="F10" t="n">
-        <v>240.4244145843437</v>
+        <v>367.7997530314647</v>
       </c>
       <c r="G10" t="n">
-        <v>71.81756957972706</v>
+        <v>208.1976249205994</v>
       </c>
       <c r="H10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4996,16 +4996,16 @@
         <v>764.7254868573889</v>
       </c>
       <c r="V10" t="n">
-        <v>757.8311355193216</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="W10" t="n">
-        <v>468.413965482361</v>
+        <v>764.7254868573889</v>
       </c>
       <c r="X10" t="n">
-        <v>240.4244145843437</v>
+        <v>536.7359359593715</v>
       </c>
       <c r="Y10" t="n">
-        <v>240.4244145843437</v>
+        <v>536.7359359593715</v>
       </c>
     </row>
     <row r="11">
@@ -5027,34 +5027,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,25 +5118,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,55 +5173,55 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>788.0191461778176</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C13" t="n">
-        <v>788.0191461778176</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>430.7826650753335</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>283.8927175774231</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
         <v>2264.108249235165</v>
@@ -5233,16 +5233,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1707.866911086565</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1418.449741049605</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1190.460190151587</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>969.6676110080573</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,16 +5288,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5309,19 +5309,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282753</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5434,31 +5434,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
         <v>2264.108249235165</v>
@@ -5470,16 +5470,16 @@
         <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1619.578945309888</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,16 +5525,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>221.3431781811722</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>700.7543264856228</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>700.7543264856228</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5829,25 +5829,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>551.354624631591</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2014.962104402028</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1725.886877746226</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1471.202389540339</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1181.785219503378</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>953.7956686053609</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>733.0030894618308</v>
       </c>
     </row>
     <row r="26">
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>119.290296770379</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6649,7 +6649,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
         <v>1746.193029533436</v>
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.964603115003</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580109</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345471</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384014</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,37 +6871,37 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="35">
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384022</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,19 +7169,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,25 +7354,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345478</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,37 +7567,37 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954142</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038072</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311311</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979285</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382517</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931272</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838286</v>
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7831,7 +7831,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -8061,7 +8061,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599043</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8310,10 +8310,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,19 +8535,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>191.9420782949372</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>339.184373405</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-1.884432275273508e-13</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22592,13 +22592,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>199.31977975336</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.4877970961994</v>
       </c>
     </row>
     <row r="3">
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>117.643557154336</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>205.0486432732471</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986293</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>117.6435571543358</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>5.19973830615865</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>121.5862749664513</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>40.32043864788574</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>37.12601365260429</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24889,10 +24889,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152326.9268048896</v>
+        <v>152326.9268048895</v>
       </c>
       <c r="C2" t="n">
         <v>184734.3982194637</v>
       </c>
       <c r="D2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="E2" t="n">
         <v>181607.9849302514</v>
@@ -26329,19 +26329,19 @@
         <v>181607.9849302514</v>
       </c>
       <c r="H2" t="n">
+        <v>181607.9849302514</v>
+      </c>
+      <c r="I2" t="n">
         <v>181607.9849302513</v>
       </c>
-      <c r="I2" t="n">
-        <v>181607.9849302514</v>
-      </c>
       <c r="J2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302513</v>
       </c>
       <c r="K2" t="n">
-        <v>181607.9849302514</v>
+        <v>181607.9849302515</v>
       </c>
       <c r="L2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
         <v>184734.3982194636</v>
@@ -26350,7 +26350,7 @@
         <v>184734.3982194636</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194636</v>
       </c>
       <c r="P2" t="n">
         <v>184734.3982194636</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808064</v>
+        <v>771052.6913808065</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363175</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.53656668275</v>
+        <v>5677.536566682721</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682767</v>
+        <v>5677.536566682736</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682763</v>
+        <v>5677.536566682736</v>
       </c>
       <c r="H4" t="n">
+        <v>5677.536566682744</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="I4" t="n">
-        <v>5677.536566682753</v>
-      </c>
       <c r="J4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.536566682752</v>
+        <v>5677.536566682751</v>
       </c>
       <c r="L4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.3958297762</v>
       </c>
       <c r="M4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.3958297762</v>
       </c>
       <c r="N4" t="n">
-        <v>13668.39582977625</v>
+        <v>13668.39582977623</v>
       </c>
       <c r="O4" t="n">
         <v>13668.39582977621</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.39582977621</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-648213.03399896</v>
+        <v>-648573.1170146775</v>
       </c>
       <c r="C6" t="n">
         <v>-108047.0953069791</v>
       </c>
       <c r="D6" t="n">
-        <v>-263850.901400774</v>
+        <v>-263850.9014007739</v>
       </c>
       <c r="E6" t="n">
-        <v>-696244.7728411448</v>
+        <v>-696279.5107665806</v>
       </c>
       <c r="F6" t="n">
-        <v>74807.91853966152</v>
+        <v>74773.18061422589</v>
       </c>
       <c r="G6" t="n">
-        <v>74807.91853966152</v>
+        <v>74773.18061422589</v>
       </c>
       <c r="H6" t="n">
-        <v>74807.91853966146</v>
+        <v>74773.18061422583</v>
       </c>
       <c r="I6" t="n">
-        <v>74807.91853966152</v>
+        <v>74773.18061422577</v>
       </c>
       <c r="J6" t="n">
-        <v>-101615.3006529314</v>
+        <v>-101650.0385783672</v>
       </c>
       <c r="K6" t="n">
-        <v>74807.91853966155</v>
+        <v>74773.18061422609</v>
       </c>
       <c r="L6" t="n">
         <v>48474.16854214028</v>
       </c>
       <c r="M6" t="n">
-        <v>-56306.62417228655</v>
+        <v>-56306.62417228651</v>
       </c>
       <c r="N6" t="n">
-        <v>67901.88653577198</v>
+        <v>67901.88653577189</v>
       </c>
       <c r="O6" t="n">
-        <v>67901.88653577206</v>
+        <v>67901.88653577215</v>
       </c>
       <c r="P6" t="n">
         <v>67901.88653577204</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>58.78700070766359</v>
+        <v>84.42688102492423</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>170.0415395682877</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>102.2581670201563</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,10 +27594,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>141.2012504944192</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>80.29936012505806</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>102.0595553203302</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>243.205144897451</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>347.3614664607672</v>
+        <v>270.8695341168938</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>8.91466972481382</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>245.3122354991414</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>595.327537312171</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>266.6561007250664</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>575.5951359912044</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,16 +33260,16 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>152.5685698206132</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
@@ -33278,10 +33278,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33734,31 +33734,31 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33974,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34208,31 +34208,31 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>468.3778278510275</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34457,10 +34457,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34954,7 +34954,7 @@
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898686</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35030,10 +35030,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>330.5578338663453</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>500.3079215552632</v>
       </c>
       <c r="P9" t="n">
-        <v>109.7875025528271</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>128.8146617507074</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,22 +36677,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>20.54758114884936</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
@@ -36926,10 +36926,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,19 +37701,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38105,10 +38105,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,13 +38175,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
